--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -34,7 +34,16 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">abhay</t>
+    <t xml:space="preserve">max1@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">five</t>
   </si>
 </sst>
 </file>
@@ -118,12 +127,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,10 +160,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -167,11 +180,24 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="max1@y.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Test@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">five</t>
   </si>
 </sst>
 </file>
@@ -157,10 +151,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -186,12 +180,15 @@
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">max1@y.com</t>
+    <t xml:space="preserve">max600@y.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123</t>
@@ -154,10 +154,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -181,7 +184,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>5</v>
@@ -192,7 +195,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max1@y.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="max600@y.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -31,13 +31,16 @@
     <t xml:space="preserve">Pack</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
     <t xml:space="preserve">max600@y.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max601@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max602@y.com</t>
   </si>
 </sst>
 </file>
@@ -151,18 +154,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -172,31 +175,49 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="max600@y.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="max601@y.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="A4" r:id="rId5" display="max602@y.com"/>
+    <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -31,16 +31,22 @@
     <t xml:space="preserve">Pack</t>
   </si>
   <si>
-    <t xml:space="preserve">max600@y.com</t>
+    <t xml:space="preserve">max3000@y.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123</t>
   </si>
   <si>
-    <t xml:space="preserve">max601@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max602@y.com</t>
+    <t xml:space="preserve">max3001@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max3002@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max3003@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max3004@y.com</t>
   </si>
 </sst>
 </file>
@@ -154,13 +160,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
   </cols>
@@ -185,7 +191,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,7 +202,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -207,17 +213,97 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max600@y.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="max3000@y.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="max601@y.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="max3001@y.com"/>
     <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="max602@y.com"/>
+    <hyperlink ref="A4" r:id="rId5" display="max3002@y.com"/>
     <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
+    <hyperlink ref="A5" r:id="rId7" display="max3003@y.com"/>
+    <hyperlink ref="B5" r:id="rId8" display="Test@123"/>
+    <hyperlink ref="A6" r:id="rId9" display="max3004@y.com"/>
+    <hyperlink ref="B6" r:id="rId10" display="Test@123"/>
+    <hyperlink ref="A7" r:id="rId11" display="max3000@y.com"/>
+    <hyperlink ref="B7" r:id="rId12" display="Test@123"/>
+    <hyperlink ref="A8" r:id="rId13" display="max3001@y.com"/>
+    <hyperlink ref="B8" r:id="rId14" display="Test@123"/>
+    <hyperlink ref="A9" r:id="rId15" display="max3002@y.com"/>
+    <hyperlink ref="B9" r:id="rId16" display="Test@123"/>
+    <hyperlink ref="A10" r:id="rId17" display="max3003@y.com"/>
+    <hyperlink ref="B10" r:id="rId18" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PackPurchase" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="UserTree" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -31,22 +32,64 @@
     <t xml:space="preserve">Pack</t>
   </si>
   <si>
-    <t xml:space="preserve">max3000@y.com</t>
+    <t xml:space="preserve">max617@y.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123</t>
   </si>
   <si>
-    <t xml:space="preserve">max3001@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max3002@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max3003@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max3004@y.com</t>
+    <t xml:space="preserve">max618@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max619@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max620@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max621@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max622@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5000@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5001@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5002@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5003@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5203@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5250@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5251@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5251</t>
   </si>
 </sst>
 </file>
@@ -62,7 +105,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,7 +127,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +171,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -139,7 +180,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,13 +209,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D4 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
   </cols>
@@ -202,7 +251,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,7 +262,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,75 +284,80 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max3000@y.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="max3001@y.com"/>
-    <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="max3002@y.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
-    <hyperlink ref="A5" r:id="rId7" display="max3003@y.com"/>
-    <hyperlink ref="B5" r:id="rId8" display="Test@123"/>
-    <hyperlink ref="A6" r:id="rId9" display="max3004@y.com"/>
-    <hyperlink ref="B6" r:id="rId10" display="Test@123"/>
-    <hyperlink ref="A7" r:id="rId11" display="max3000@y.com"/>
-    <hyperlink ref="B7" r:id="rId12" display="Test@123"/>
-    <hyperlink ref="A8" r:id="rId13" display="max3001@y.com"/>
-    <hyperlink ref="B8" r:id="rId14" display="Test@123"/>
-    <hyperlink ref="A9" r:id="rId15" display="max3002@y.com"/>
-    <hyperlink ref="B9" r:id="rId16" display="Test@123"/>
-    <hyperlink ref="A10" r:id="rId17" display="max3003@y.com"/>
-    <hyperlink ref="B10" r:id="rId18" display="Test@123"/>
+    <hyperlink ref="B2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="B3" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="B4" r:id="rId3" display="Test@123"/>
+    <hyperlink ref="B5" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="B6" r:id="rId5" display="Test@123"/>
+    <hyperlink ref="B7" r:id="rId6" display="Test@123"/>
+    <hyperlink ref="A8" r:id="rId7" display="max5000@y.com"/>
+    <hyperlink ref="B8" r:id="rId8" display="Test@123"/>
+    <hyperlink ref="A9" r:id="rId9" display="max5001@y.com"/>
+    <hyperlink ref="B9" r:id="rId10" display="Test@123"/>
+    <hyperlink ref="A10" r:id="rId11" display="max5002@y.com"/>
+    <hyperlink ref="B10" r:id="rId12" display="Test@123"/>
+    <hyperlink ref="A11" r:id="rId13" display="max5003@y.com"/>
+    <hyperlink ref="B11" r:id="rId14" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -313,4 +367,96 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="max5203@y.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="max5250@y.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="A4" r:id="rId5" display="max5251@y.com"/>
+    <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t xml:space="preserve">max5251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajeet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shantanu</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D3:D4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8:D12 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,10 +386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A8:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D4"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -386,70 +398,84 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max5203@y.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="max5250@y.com"/>
-    <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="max5251@y.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
+    <hyperlink ref="A9" r:id="rId1" display="max5203@y.com"/>
+    <hyperlink ref="B9" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="A10" r:id="rId3" display="max5250@y.com"/>
+    <hyperlink ref="B10" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="A11" r:id="rId5" display="max5251@y.com"/>
+    <hyperlink ref="B11" r:id="rId6" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PackPurchase" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="UserTree" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Transfer" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -102,6 +103,21 @@
   </si>
   <si>
     <t xml:space="preserve">Shantanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
   </si>
 </sst>
 </file>
@@ -111,12 +127,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,6 +156,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,6 +227,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,11 +253,11 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A8:D12 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
   </cols>
@@ -386,96 +416,166 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A8:D12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
   </cols>
   <sheetData>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="max5203@y.com"/>
-    <hyperlink ref="B9" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="A10" r:id="rId3" display="max5250@y.com"/>
-    <hyperlink ref="B10" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="A11" r:id="rId5" display="max5251@y.com"/>
-    <hyperlink ref="B11" r:id="rId6" display="Test@123"/>
+    <hyperlink ref="A2" r:id="rId1" display="max5203@y.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="max5250@y.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="A4" r:id="rId5" display="max5251@y.com"/>
+    <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="max5203@y.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="C2" r:id="rId3" display="max5251@y.com"/>
+    <hyperlink ref="D2" r:id="rId4" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PackPurchase" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t xml:space="preserve">User </t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max600@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max601@y.com</t>
   </si>
 </sst>
 </file>
@@ -253,11 +259,11 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="D3:E3 D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
   </cols>
@@ -419,10 +425,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="D3:E3 A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
@@ -522,13 +528,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
@@ -552,10 +558,11 @@
       <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -570,12 +577,33 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max5203@y.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="max600@y.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
     <hyperlink ref="C2" r:id="rId3" display="max5251@y.com"/>
     <hyperlink ref="D2" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="A3" r:id="rId5" display="max600@y.com"/>
+    <hyperlink ref="B3" r:id="rId6" display="Test@123"/>
+    <hyperlink ref="C3" r:id="rId7" display="max601@y.com"/>
+    <hyperlink ref="D3" r:id="rId8" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="UserTree" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -45,46 +45,37 @@
     <t xml:space="preserve">max5203</t>
   </si>
   <si>
-    <t xml:space="preserve">max5250@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max5250</t>
+    <t xml:space="preserve">max6901@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6902@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max600@y.com</t>
   </si>
   <si>
     <t xml:space="preserve">max5251@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max5251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abhay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akshay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajeet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shantanu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sender_Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sender_Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiver_Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiver_Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max600@y.com</t>
   </si>
   <si>
     <t xml:space="preserve">max601@y.com</t>
@@ -230,10 +221,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A1:C2 A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -298,27 +289,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="max5203@y.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="max5250@y.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="max6901@y.com"/>
     <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="max5251@y.com"/>
+    <hyperlink ref="A4" r:id="rId5" display="max6902@y.com"/>
     <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -339,7 +316,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A1:C2 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,31 +329,31 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
@@ -387,13 +364,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>5</v>
@@ -430,26 +407,26 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="UserTree" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Transfer" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="PackPurchase" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Transfer" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="PackPurchase" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="UserTree" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,70 +24,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
+    <t xml:space="preserve">Sender_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max600@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max5251@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max601@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max617@y.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
     <t xml:space="preserve">UserName</t>
   </si>
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
   <si>
-    <t xml:space="preserve">max5203@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max5203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6901@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6902@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sender_Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sender_Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiver_Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receiver_Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max600@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max5251@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max601@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max617@y.com</t>
+    <t xml:space="preserve">max6913@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6914@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6915@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6915</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -119,6 +119,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -129,12 +137,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,29 +185,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -217,98 +227,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max5203@y.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="max6901@y.com"/>
-    <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="max6902@y.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -327,36 +245,36 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>10</v>
@@ -364,16 +282,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>10</v>
@@ -400,7 +318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -414,22 +332,22 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -447,4 +365,88 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="max6913@y.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="max6914@y.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -78,16 +78,16 @@
     <t xml:space="preserve">max6913</t>
   </si>
   <si>
-    <t xml:space="preserve">max6914@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6915@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6915</t>
+    <t xml:space="preserve">max6924@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6925@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6925</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,13 +412,13 @@
       <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -426,7 +426,7 @@
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -439,7 +439,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="max6913@y.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="max6914@y.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="max6924@y.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="max6925@y.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -78,16 +78,16 @@
     <t xml:space="preserve">max6913</t>
   </si>
   <si>
-    <t xml:space="preserve">max6924@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6925@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6925</t>
+    <t xml:space="preserve">max6926@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6927@y.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max6927</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,8 +439,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="max6913@y.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="max6924@y.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="max6925@y.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="max6926@y.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="max6927@y.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t xml:space="preserve">Sender_Email</t>
   </si>
@@ -72,22 +72,76 @@
     <t xml:space="preserve">FirstName</t>
   </si>
   <si>
-    <t xml:space="preserve">max6913@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6926@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6927@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max6927</t>
+    <t xml:space="preserve">UBB1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB12@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBB12</t>
   </si>
 </sst>
 </file>
@@ -97,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -136,12 +190,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,27 +238,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,7 +275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -239,61 +287,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>10</v>
       </c>
     </row>
@@ -310,7 +358,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -319,7 +367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -332,24 +380,24 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -359,7 +407,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -368,26 +416,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -395,13 +443,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -412,10 +460,10 @@
       <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -426,25 +474,172 @@
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max6913@y.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="max6926@y.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="max6927@y.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="UBB1@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="UBB2@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
+    <hyperlink ref="A4" r:id="rId5" display="UBB3@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
+    <hyperlink ref="A5" r:id="rId7" display="UBB4@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId8" display="Test@123"/>
+    <hyperlink ref="A6" r:id="rId9" display="UBB5@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId10" display="Test@123"/>
+    <hyperlink ref="A7" r:id="rId11" display="UBB6@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId12" display="Test@123"/>
+    <hyperlink ref="A8" r:id="rId13" display="UBB7@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId14" display="Test@123"/>
+    <hyperlink ref="A9" r:id="rId15" display="UBB8@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId16" display="Test@123"/>
+    <hyperlink ref="A10" r:id="rId17" display="UBB9@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId18" display="Test@123"/>
+    <hyperlink ref="A11" r:id="rId19" display="UBB10@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId20" display="Test@123"/>
+    <hyperlink ref="A12" r:id="rId21" display="UBB11@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId22" display="Test@123"/>
+    <hyperlink ref="A13" r:id="rId23" display="UBB12@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId24" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Transfer" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="PackPurchase" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="UserTree" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Transfer" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="PackPurchase" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="UserTree" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t xml:space="preserve">Sender_Email</t>
   </si>
@@ -39,16 +39,13 @@
     <t xml:space="preserve">Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">max600@y.com</t>
+    <t xml:space="preserve">SBB1@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Test@123</t>
   </si>
   <si>
-    <t xml:space="preserve">max5251@y.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max601@y.com</t>
+    <t xml:space="preserve">SBB2@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">User </t>
@@ -60,7 +57,7 @@
     <t xml:space="preserve">Pack</t>
   </si>
   <si>
-    <t xml:space="preserve">max617@y.com</t>
+    <t xml:space="preserve">SBB99@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Email</t>
@@ -72,76 +69,13 @@
     <t xml:space="preserve">FirstName</t>
   </si>
   <si>
-    <t xml:space="preserve">UBB1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB3@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB5@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB6@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB8@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB9@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB10@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB11@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBB12</t>
+    <t xml:space="preserve">SBB9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB99</t>
   </si>
 </sst>
 </file>
@@ -274,6 +208,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -281,8 +321,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -293,7 +333,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -329,32 +369,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>10</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="max600@y.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="SBB1@gmail.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="C2" r:id="rId3" display="max5251@y.com"/>
+    <hyperlink ref="C2" r:id="rId3" display="SBB2@gmail.com"/>
     <hyperlink ref="D2" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="A3" r:id="rId5" display="max600@y.com"/>
-    <hyperlink ref="B3" r:id="rId6" display="Test@123"/>
-    <hyperlink ref="C3" r:id="rId7" display="max601@y.com"/>
-    <hyperlink ref="D3" r:id="rId8" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -374,36 +396,37 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="3:3 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Test@123"/>
+    <hyperlink ref="A2" r:id="rId1" display="SBB99@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -420,222 +443,143 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="3:3 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.76"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>18</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="UBB1@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="SBB9@gmail.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
-    <hyperlink ref="A3" r:id="rId3" display="UBB2@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId3" display="SBB99@gmail.com"/>
     <hyperlink ref="B3" r:id="rId4" display="Test@123"/>
-    <hyperlink ref="A4" r:id="rId5" display="UBB3@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId6" display="Test@123"/>
-    <hyperlink ref="A5" r:id="rId7" display="UBB4@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId8" display="Test@123"/>
-    <hyperlink ref="A6" r:id="rId9" display="UBB5@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId10" display="Test@123"/>
-    <hyperlink ref="A7" r:id="rId11" display="UBB6@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId12" display="Test@123"/>
-    <hyperlink ref="A8" r:id="rId13" display="UBB7@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId14" display="Test@123"/>
-    <hyperlink ref="A9" r:id="rId15" display="UBB8@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId16" display="Test@123"/>
-    <hyperlink ref="A10" r:id="rId17" display="UBB9@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId18" display="Test@123"/>
-    <hyperlink ref="A11" r:id="rId19" display="UBB10@gmail.com"/>
-    <hyperlink ref="B11" r:id="rId20" display="Test@123"/>
-    <hyperlink ref="A12" r:id="rId21" display="UBB11@gmail.com"/>
-    <hyperlink ref="B12" r:id="rId22" display="Test@123"/>
-    <hyperlink ref="A13" r:id="rId23" display="UBB12@gmail.com"/>
-    <hyperlink ref="B13" r:id="rId24" display="Test@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -322,7 +322,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="3:3 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="3:3 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transfer" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="PackPurchase" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="UserTree" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="signup" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t xml:space="preserve">Sender_Email</t>
   </si>
@@ -76,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">SBB99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axx@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axx</t>
   </si>
 </sst>
 </file>
@@ -321,7 +328,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -446,7 +453,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,4 +596,60 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="axx@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/java/resources/Superone.xlsx
+++ b/src/test/java/resources/Superone.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="UserTree" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Transfer" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="PackPurchase" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="signup" sheetId="4" r:id="rId7"/>
+    <sheet name="UserTree" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Transfer" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="PackPurchase" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="signup" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t xml:space="preserve">Email </t>
   </si>
@@ -22,98 +31,123 @@
     <t xml:space="preserve">Password </t>
   </si>
   <si>
-    <t>User name</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>OHH5@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>OHH5</t>
-  </si>
-  <si>
-    <t>OHH6@gmail.com</t>
-  </si>
-  <si>
-    <t>OHH6</t>
-  </si>
-  <si>
-    <t>Sender_Email</t>
-  </si>
-  <si>
-    <t>Sender_Password</t>
-  </si>
-  <si>
-    <t>Receiver_Email</t>
-  </si>
-  <si>
-    <t>Receiver_Password</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>SBB1@gmail.com</t>
-  </si>
-  <si>
-    <t>SBB2@gmail.com</t>
-  </si>
-  <si>
-    <t>User Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Pack</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>IKK@gmail.com</t>
-  </si>
-  <si>
-    <t>IKK</t>
+    <t xml:space="preserve">User name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIU5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIU5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIU6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIU6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver_Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receiver_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBB2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKK@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IKK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="8.0"/>
+      <u val="single"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +155,18 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF9A9A9A"/>
       </left>
@@ -139,49 +179,125 @@
       <bottom style="thin">
         <color rgb="FF9A9A9A"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF9A9A9A"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -192,94 +308,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -287,33 +399,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -326,13 +429,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -342,15 +439,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -358,7 +453,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -366,11 +460,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -379,16 +473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -416,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -431,21 +528,30 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -462,7 +568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -475,32 +581,41 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
-        <v>10.0</v>
+      <c r="E2" s="2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="C2"/>
-    <hyperlink r:id="rId4" ref="D2"/>
+    <hyperlink ref="A2" r:id="rId1" display="SBB1@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Test@123"/>
+    <hyperlink ref="C2" r:id="rId3" display="SBB2@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId4" display="Test@123"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -511,33 +626,53 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>4.0</v>
+      <c r="C2" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -551,7 +686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -566,6 +701,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>